--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/10/seed4/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.574</v>
+        <v>-12.906</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -558,13 +558,13 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.146</v>
+        <v>5.505999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.05</v>
+        <v>-11.18</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.3</v>
+        <v>-7.159000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>4.709999999999999</v>
+        <v>5.275</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.83</v>
+        <v>7.069</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.744</v>
+        <v>-12.953</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.824</v>
+        <v>-12.548</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.772</v>
+        <v>-12.401</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.42</v>
+        <v>5.752000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.882000000000001</v>
+        <v>-7.386</v>
       </c>
     </row>
     <row r="33">
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.764</v>
+        <v>-12.196</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -925,7 +925,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.492</v>
+        <v>-12.415</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.166</v>
+        <v>-7.963999999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.068</v>
+        <v>-7.458999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1107,7 +1107,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.986</v>
+        <v>-11.529</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1152,7 +1152,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.45</v>
+        <v>-8.059999999999999</v>
       </c>
     </row>
     <row r="52">
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.534</v>
+        <v>-11.743</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1236,7 +1236,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.084</v>
+        <v>-8.145999999999999</v>
       </c>
     </row>
     <row r="58">
@@ -1334,7 +1334,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.76</v>
+        <v>-7.711</v>
       </c>
     </row>
     <row r="65">
@@ -1359,7 +1359,7 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.128</v>
+        <v>-11.574</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1373,7 +1373,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.076</v>
+        <v>-10.977</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.922</v>
+        <v>5.930999999999999</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.866</v>
+        <v>6.248</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-11.854</v>
+        <v>-12.372</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.659999999999999</v>
+        <v>5.496</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.092000000000001</v>
+        <v>-6.981</v>
       </c>
     </row>
     <row r="94">
@@ -1821,7 +1821,7 @@
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.184</v>
+        <v>-11.793</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
